--- a/assets/img/sizing.xlsx
+++ b/assets/img/sizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\menrt\Documents\GitHub\rpturnbull.github.io\assets\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEDBB6FD-DCDF-4AEC-99FA-2C50492611A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5CBD5F-9896-43F1-9F62-F7F7796B20CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{27DD8BCD-BCAB-4914-9685-064FD90B3A64}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{27DD8BCD-BCAB-4914-9685-064FD90B3A64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="B4:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
